--- a/timeline-of-events-business-days.xlsx
+++ b/timeline-of-events-business-days.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Personal Vault\Careers\Job Files\Georgetown University\Business Operations Specialist\Useful Job Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hihipy\coding-workspace\useful-job-tools\timeline-of-events-business-days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB5D645-D096-47F6-B6F7-24DC77DDE02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6C7280-085E-4245-8D93-41E14CA00EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CAA3A225-AAD3-480D-8C53-33E39AA58488}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t>Business Days Between Previous Phase End Date &amp; Start Date of New Phase</t>
   </si>
   <si>
-    <t xml:space="preserve">Business Days Since Initial Contract Signed </t>
+    <t>Business Days Since Initiation</t>
   </si>
 </sst>
 </file>
@@ -104,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,6 +113,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -133,6 +139,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -147,7 +154,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -178,6 +185,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -193,7 +201,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -209,7 +217,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -240,7 +248,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -256,7 +264,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -287,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{723B89BB-2764-4855-92B3-893722013F34}" name="Table1" displayName="Table1" ref="A1:H8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:H8" xr:uid="{ABDD8277-02DB-43E5-A86C-D0B25FE95405}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{723B89BB-2764-4855-92B3-893722013F34}" name="Table1" displayName="Table1" ref="A1:H26" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:H26" xr:uid="{ABDD8277-02DB-43E5-A86C-D0B25FE95405}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AE572872-AB97-4CB9-BAA6-931744DFD9A2}" name="Action Item Phase" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{596B00C8-507D-4433-8396-65259898AFE9}" name="Start Date" dataDxfId="8"/>
@@ -300,9 +308,9 @@
       <calculatedColumnFormula>NETWORKDAYS(B2, C2,)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{37178919-32A9-46DF-9EB9-4574BB81ED52}" name="Business Days Between Previous Phase End Date &amp; Start Date of New Phase" dataDxfId="4">
-      <calculatedColumnFormula>NETWORKDAYS(C1, B2,)</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(NETWORKDAYS(C1, B2,), "Please fill in Start Date and End Date Rows")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4E3CF4D8-F3D6-4223-8A07-0B01C2BCD01D}" name="Business Days Since Initial Contract Signed " dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{4E3CF4D8-F3D6-4223-8A07-0B01C2BCD01D}" name="Business Days Since Initiation" dataDxfId="3">
       <calculatedColumnFormula>NETWORKDAYS(C$2, C2,)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{BD1D7A0A-F015-46C1-B9D3-3B6A69C7F78F}" name="Further Details" dataDxfId="2"/>
@@ -611,35 +619,36 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="157.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="110.85546875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -651,159 +660,559 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="3" t="str">
         <f>TEXT(B2, "ddd, mmmm dd, yyyy") &amp; " - "&amp;TEXT(C2, "ddd, mmmm dd, yyyy")</f>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <f t="shared" ref="E2:E8" si="0">NETWORKDAYS(B2, C2,)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="e">
-        <f t="shared" ref="F2:F8" si="1">NETWORKDAYS(C1, B2,)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="3" t="str">
+        <f t="shared" ref="F2:F8" si="1">IFERROR(NETWORKDAYS(C1, B2,), "Please fill in Start Date and End Date Rows")</f>
+        <v>Please fill in Start Date and End Date Rows</v>
+      </c>
+      <c r="G2" s="3">
         <f t="shared" ref="G2:G8" si="2">NETWORKDAYS(C$2, C2,)</f>
         <v>0</v>
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="3" t="str">
         <f>TEXT(B3, "ddd, mmmm dd, yyyy") &amp; " - "&amp;TEXT(C3, "ddd, mmmm dd, yyyy")</f>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D8" si="3">TEXT(B4, "ddd, mmmm dd, yyyy") &amp; " - "&amp;TEXT(C4, "ddd, mmmm dd, yyyy")</f>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="str">
+        <f t="shared" ref="D9:D26" si="4">TEXT(B9, "ddd, mmmm dd, yyyy") &amp; " - "&amp;TEXT(C9, "ddd, mmmm dd, yyyy")</f>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ref="E9:E26" si="5">NETWORKDAYS(B9, C9,)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ref="F9:F26" si="6">IFERROR(NETWORKDAYS(C8, B9,), "Please fill in Start Date and End Date Rows")</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" ref="G9:G26" si="7">NETWORKDAYS(C$2, C9,)</f>
+        <v>0</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timeline-of-events-business-days.xlsx
+++ b/timeline-of-events-business-days.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hihipy\coding-workspace\useful-job-tools\timeline-of-events-business-days\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd6fd30e1a3dec7d/Documents/coding-workspace/useful-job-tools/timeline-of-events-business-days/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6C7280-085E-4245-8D93-41E14CA00EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BA6C7280-085E-4245-8D93-41E14CA00EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{211CCB6E-D4CC-DC47-9B93-EB0D20DA9AF1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CAA3A225-AAD3-480D-8C53-33E39AA58488}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{CAA3A225-AAD3-480D-8C53-33E39AA58488}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -118,44 +118,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -281,6 +248,36 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -295,25 +292,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{723B89BB-2764-4855-92B3-893722013F34}" name="Table1" displayName="Table1" ref="A1:H26" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{723B89BB-2764-4855-92B3-893722013F34}" name="Table1" displayName="Table1" ref="A1:H26" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H26" xr:uid="{ABDD8277-02DB-43E5-A86C-D0B25FE95405}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AE572872-AB97-4CB9-BAA6-931744DFD9A2}" name="Action Item Phase" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{596B00C8-507D-4433-8396-65259898AFE9}" name="Start Date" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{2D08CDEC-210D-4C72-B0E0-2E78E5D8E493}" name="End Date" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{9AE6AA47-176D-4EFD-BF6A-C83F2F55CAAD}" name="Period" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{AE572872-AB97-4CB9-BAA6-931744DFD9A2}" name="Action Item Phase" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{596B00C8-507D-4433-8396-65259898AFE9}" name="Start Date" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2D08CDEC-210D-4C72-B0E0-2E78E5D8E493}" name="End Date" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{9AE6AA47-176D-4EFD-BF6A-C83F2F55CAAD}" name="Period" dataDxfId="4">
       <calculatedColumnFormula>TEXT(B2, "ddd, mmmm dd, yyyy") &amp; " - "&amp;TEXT(C2, "ddd, mmmm dd, yyyy")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A51CAD55-EF49-441D-B1BC-64D2C0A23344}" name="Business Days Needed to Complete Action Item" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{A51CAD55-EF49-441D-B1BC-64D2C0A23344}" name="Business Days Needed to Complete Action Item" dataDxfId="3">
       <calculatedColumnFormula>NETWORKDAYS(B2, C2,)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{37178919-32A9-46DF-9EB9-4574BB81ED52}" name="Business Days Between Previous Phase End Date &amp; Start Date of New Phase" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{37178919-32A9-46DF-9EB9-4574BB81ED52}" name="Business Days Between Previous Phase End Date &amp; Start Date of New Phase" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(NETWORKDAYS(C1, B2,), "Please fill in Start Date and End Date Rows")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4E3CF4D8-F3D6-4223-8A07-0B01C2BCD01D}" name="Business Days Since Initiation" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{4E3CF4D8-F3D6-4223-8A07-0B01C2BCD01D}" name="Business Days Since Initiation" dataDxfId="1">
       <calculatedColumnFormula>NETWORKDAYS(C$2, C2,)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BD1D7A0A-F015-46C1-B9D3-3B6A69C7F78F}" name="Further Details" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{BD1D7A0A-F015-46C1-B9D3-3B6A69C7F78F}" name="Further Details" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -622,23 +619,24 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="1" sqref="A2:XFD2 B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="110.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="110.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -664,7 +662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -686,7 +684,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -708,7 +706,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -730,7 +728,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -752,7 +750,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -774,7 +772,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -796,7 +794,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -818,7 +816,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -826,21 +824,21 @@
         <f t="shared" ref="D9:D26" si="4">TEXT(B9, "ddd, mmmm dd, yyyy") &amp; " - "&amp;TEXT(C9, "ddd, mmmm dd, yyyy")</f>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <f t="shared" ref="E9:E26" si="5">NETWORKDAYS(B9, C9,)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <f t="shared" ref="F9:F26" si="6">IFERROR(NETWORKDAYS(C8, B9,), "Please fill in Start Date and End Date Rows")</f>
         <v>0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <f t="shared" ref="G9:G26" si="7">NETWORKDAYS(C$2, C9,)</f>
         <v>0</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -848,21 +846,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E10" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="E10" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -870,21 +868,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E11" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="E11" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -892,21 +890,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E12" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="E12" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -914,21 +912,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E13" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="E13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -936,21 +934,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E14" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="E14" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -958,21 +956,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E15" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="E15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -980,21 +978,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E16" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="E16" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1002,21 +1000,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E17" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="E17" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1024,21 +1022,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E18" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="E18" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1046,21 +1044,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E19" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="E19" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1068,21 +1066,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E20" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="E20" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1090,21 +1088,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E21" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="E21" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1112,21 +1110,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E22" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="E22" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1134,21 +1132,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E23" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="E23" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1156,21 +1154,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E24" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="E24" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1178,21 +1176,21 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E25" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="E25" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1200,15 +1198,15 @@
         <f t="shared" si="4"/>
         <v>Sat, January 00, 1900 - Sat, January 00, 1900</v>
       </c>
-      <c r="E26" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="E26" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
